--- a/server/exports/PhantomCleaning_January_2026.xlsx
+++ b/server/exports/PhantomCleaning_January_2026.xlsx
@@ -5,13 +5,14 @@
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
     <sheet sheetId="1" name="Melbourne" state="visible" r:id="rId4"/>
+    <sheet sheetId="2" name="Sydney" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
   <si>
     <t>Job ID</t>
   </si>
@@ -62,6 +63,21 @@
   </si>
   <si>
     <t>Completed</t>
+  </si>
+  <si>
+    <t>697bef6617af9e0c163f4527</t>
+  </si>
+  <si>
+    <t>1/31/2026</t>
+  </si>
+  <si>
+    <t>Sujal</t>
+  </si>
+  <si>
+    <t>07814510552</t>
+  </si>
+  <si>
+    <t>gobind colony</t>
   </si>
 </sst>
 </file>
@@ -514,4 +530,84 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="6" max="6" width="32" customWidth="1"/>
+    <col min="7" max="7" width="22" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2">
+        <v>500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+</worksheet>
 </file>